--- a/biology/Microbiologie/Gélose_MOX/Gélose_MOX.xlsx
+++ b/biology/Microbiologie/Gélose_MOX/Gélose_MOX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MOX</t>
+          <t>Gélose_MOX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose mox (gélose OXFORD modifiée au moxalactam) est un milieu de culture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MOX</t>
+          <t>Gélose_MOX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolement sélectif des Listeria
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MOX</t>
+          <t>Gélose_MOX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gélose Columbia modifiée		38,1 g
 Esculine		1,0 g
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MOX</t>
+          <t>Gélose_MOX</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">55,5 g de poudre par litre. Autoclavage classique. Le moxalactam (et la colistine pour certains fabricants) est ajouté après autoclavage.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MOX</t>
+          <t>Gélose_MOX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Halo noir autour des colonies : hydrolyse de l'esculine par une β-glucosidase. Listeria est pratiquement la seule bactérie à cultiver : seuls quelques Enterococcus peuvent être rencontrés. Les inhibiteurs sont le moxalactam ou latamoxef, céphalosporine, et le Li+ à haute concentration. Incubation conseillée : 24 à 48 h à 37 °C.
 Le milieu est avant tout utilisé pour la recherche de Listeria monocytogenes en microbiologie des aliments selon la norme NF EN ISO 11290-1.
